--- a/data/manual_rank_3.xlsx
+++ b/data/manual_rank_3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\green-supply-chain\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E539B252-42E5-4824-8FEF-CEE63E24D103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="11950" windowHeight="10600"/>
+    <workbookView xWindow="14693" yWindow="2948" windowWidth="15165" windowHeight="11999" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -53,14 +57,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,352 +67,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -422,251 +90,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -677,61 +103,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -989,30 +371,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.55833333333333" customWidth="1"/>
-    <col min="2" max="2" width="24.8833333333333" customWidth="1"/>
-    <col min="3" max="3" width="31.4416666666667" customWidth="1"/>
-    <col min="4" max="4" width="22.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="27.1083333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.55833333333333" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" customWidth="1"/>
+    <col min="1" max="1" width="5.53125" customWidth="1"/>
+    <col min="2" max="2" width="24.86328125" customWidth="1"/>
+    <col min="3" max="3" width="31.46484375" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="27.1328125" customWidth="1"/>
+    <col min="6" max="6" width="7.53125" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="61.8" customHeight="1" spans="1:15">
+    <row r="1" spans="1:15" ht="61.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +425,7 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1057,7 +439,7 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -1066,7 +448,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1080,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1089,7 +471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>5</v>
       </c>
@@ -1112,7 +494,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7</v>
       </c>
@@ -1126,7 +508,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1135,7 +517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1158,7 +540,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1181,7 +563,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>16</v>
       </c>
@@ -1204,7 +586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>19</v>
       </c>
@@ -1227,7 +609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>23</v>
       </c>
@@ -1250,7 +632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>24</v>
       </c>
@@ -1273,7 +655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>34</v>
       </c>
@@ -1296,7 +678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>36</v>
       </c>
@@ -1319,7 +701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>40</v>
       </c>
@@ -1333,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1342,7 +724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>43</v>
       </c>
@@ -1365,7 +747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>46</v>
       </c>
@@ -1388,7 +770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>50</v>
       </c>
@@ -1411,7 +793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>58</v>
       </c>
@@ -1434,7 +816,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>62</v>
       </c>
@@ -1457,7 +839,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>63</v>
       </c>
@@ -1480,7 +862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>65</v>
       </c>
@@ -1503,7 +885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>66</v>
       </c>
@@ -1526,7 +908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>67</v>
       </c>
@@ -1549,7 +931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>70</v>
       </c>
@@ -1572,7 +954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>71</v>
       </c>
@@ -1595,7 +977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>72</v>
       </c>
@@ -1618,7 +1000,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>74</v>
       </c>
@@ -1641,7 +1023,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>75</v>
       </c>
@@ -1664,7 +1046,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>76</v>
       </c>
@@ -1687,7 +1069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>77</v>
       </c>
@@ -1710,7 +1092,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>79</v>
       </c>
@@ -1733,7 +1115,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>81</v>
       </c>
@@ -1756,7 +1138,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>88</v>
       </c>
@@ -1779,7 +1161,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>90</v>
       </c>
@@ -1802,7 +1184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>95</v>
       </c>
@@ -1825,7 +1207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>96</v>
       </c>
@@ -1839,7 +1221,7 @@
         <v>10</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1848,7 +1230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>112</v>
       </c>
@@ -1871,7 +1253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>114</v>
       </c>
@@ -1894,7 +1276,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>125</v>
       </c>
@@ -1917,7 +1299,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>128</v>
       </c>
@@ -1940,7 +1322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>130</v>
       </c>
@@ -1963,7 +1345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>132</v>
       </c>
@@ -1986,7 +1368,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>133</v>
       </c>
@@ -2009,7 +1391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>136</v>
       </c>
@@ -2032,7 +1414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>138</v>
       </c>
@@ -2055,7 +1437,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>140</v>
       </c>
@@ -2078,7 +1460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>142</v>
       </c>
@@ -2101,7 +1483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>143</v>
       </c>
@@ -2124,7 +1506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>148</v>
       </c>
@@ -2147,7 +1529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>151</v>
       </c>
@@ -2170,7 +1552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>156</v>
       </c>
@@ -2193,7 +1575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>157</v>
       </c>
@@ -2216,7 +1598,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>158</v>
       </c>
@@ -2239,7 +1621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>161</v>
       </c>
@@ -2262,7 +1644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>166</v>
       </c>
@@ -2285,7 +1667,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>167</v>
       </c>
@@ -2308,7 +1690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>171</v>
       </c>
@@ -2331,7 +1713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>181</v>
       </c>
@@ -2354,7 +1736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>182</v>
       </c>
@@ -2377,7 +1759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>184</v>
       </c>
@@ -2400,7 +1782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>191</v>
       </c>
@@ -2423,7 +1805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>197</v>
       </c>
@@ -2446,7 +1828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>198</v>
       </c>
@@ -2469,7 +1851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>202</v>
       </c>
@@ -2492,7 +1874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>203</v>
       </c>
@@ -2515,7 +1897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>204</v>
       </c>
@@ -2539,8 +1921,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>